--- a/Intermediate I/Week 3/workbook/W3_V4 NamedRangesInFormulas.xlsx
+++ b/Intermediate I/Week 3/workbook/W3_V4 NamedRangesInFormulas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate I\Week 3\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CF09C-F648-4933-9F16-883155E28C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -34,15 +35,45 @@
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
     <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
@@ -562,7 +593,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1057,35 +1088,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
-    <col min="8" max="8" width="17.69140625" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
-    <col min="10" max="10" width="10.4609375" customWidth="1"/>
-    <col min="11" max="11" width="12.765625" customWidth="1"/>
-    <col min="12" max="13" width="14.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" customWidth="1"/>
-    <col min="15" max="15" width="11.07421875" customWidth="1"/>
-    <col min="16" max="16" width="11.3046875" customWidth="1"/>
-    <col min="18" max="18" width="22.69140625" customWidth="1"/>
-    <col min="19" max="19" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
@@ -1096,7 +1127,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1181,7 @@
       </c>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1203,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.408333333333335</v>
+        <v>19.372222222222224</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1202,13 +1233,19 @@
         <f t="shared" ref="O4:O38" si="5">N4*Pension_Rate</f>
         <v>9126</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="13" cm="1">
+        <f t="array" ref="P4:P38">Annual_Salary+Pension</f>
+        <v>110526</v>
+      </c>
       <c r="R4" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S4" s="17">
+        <f>SUM(_xlfn.ANCHORARRAY(P4))</f>
+        <v>2134656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1267,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.336111111111112</v>
+        <v>19.3</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>80</v>
@@ -1260,13 +1297,18 @@
         <f t="shared" si="5"/>
         <v>6327</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="13">
+        <v>76627</v>
+      </c>
       <c r="R5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S5" s="17">
+        <f>AVERAGE(Annual_Salary)</f>
+        <v>55954.285714285717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1330,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.797222222222222</v>
+        <v>17.761111111111113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -1318,13 +1360,18 @@
         <f t="shared" si="5"/>
         <v>6192</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="13">
+        <v>74992</v>
+      </c>
       <c r="R6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S6" s="16">
+        <f>MIN(Last_Review)</f>
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1346,7 +1393,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.183333333333334</v>
+        <v>16.147222222222222</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
@@ -1376,13 +1423,18 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13">
+        <v>64528</v>
+      </c>
       <c r="R7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S7" s="16">
+        <f>MAX(Date_of_Hire)</f>
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -1404,7 +1456,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.952777777777778</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
@@ -1434,9 +1486,11 @@
         <f t="shared" si="5"/>
         <v>5661</v>
       </c>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P8" s="13">
+        <v>68561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1458,7 +1512,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.419444444444444</v>
+        <v>14.383333333333333</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1488,9 +1542,11 @@
         <f t="shared" si="5"/>
         <v>5256</v>
       </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P9" s="13">
+        <v>63656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1512,7 +1568,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.266666666666667</v>
+        <v>14.230555555555556</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1542,9 +1598,11 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P10" s="13">
+        <v>64528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -1566,7 +1624,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.655555555555555</v>
+        <v>13.619444444444444</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1596,9 +1654,11 @@
         <f t="shared" si="5"/>
         <v>4644</v>
       </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P11" s="13">
+        <v>56244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1620,7 +1680,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2083333333333339</v>
+        <v>12.172222222222222</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
@@ -1650,9 +1710,11 @@
         <f t="shared" si="5"/>
         <v>5238</v>
       </c>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P12" s="13">
+        <v>63438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -1674,7 +1736,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8388888888888886</v>
+        <v>11.802777777777777</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1704,9 +1766,11 @@
         <f t="shared" si="5"/>
         <v>5022</v>
       </c>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P13" s="13">
+        <v>60822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1728,7 +1792,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.541666666666667</v>
+        <v>10.505555555555556</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
@@ -1758,9 +1822,11 @@
         <f t="shared" si="5"/>
         <v>4995</v>
       </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P14" s="13">
+        <v>60495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1782,7 +1848,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3805555555555555</v>
+        <v>10.344444444444445</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -1812,9 +1878,11 @@
         <f t="shared" si="5"/>
         <v>4356</v>
       </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P15" s="13">
+        <v>52756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1836,7 +1904,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3527777777777779</v>
+        <v>9.3166666666666664</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
@@ -1866,9 +1934,11 @@
         <f t="shared" si="5"/>
         <v>5337</v>
       </c>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P16" s="13">
+        <v>64637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
@@ -1890,7 +1960,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0250000000000004</v>
+        <v>8.9888888888888889</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>72</v>
@@ -1920,9 +1990,11 @@
         <f t="shared" si="5"/>
         <v>5040</v>
       </c>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P17" s="13">
+        <v>61040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1944,7 +2016,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2555555555555555</v>
+        <v>8.219444444444445</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
@@ -1974,9 +2046,11 @@
         <f t="shared" si="5"/>
         <v>5688</v>
       </c>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P18" s="13">
+        <v>68888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -1998,7 +2072,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7638888888888893</v>
+        <v>7.7277777777777779</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -2028,9 +2102,11 @@
         <f t="shared" si="5"/>
         <v>4653</v>
       </c>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P19" s="13">
+        <v>56353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -2052,7 +2128,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.666666666666667</v>
+        <v>7.6305555555555555</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>80</v>
@@ -2082,9 +2158,11 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P20" s="13">
+        <v>54064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2106,7 +2184,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1416666666666666</v>
+        <v>7.1055555555555552</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -2136,9 +2214,11 @@
         <f t="shared" si="5"/>
         <v>4059</v>
       </c>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P21" s="13">
+        <v>49159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2160,7 +2240,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0833333333333335</v>
+        <v>6.0472222222222225</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -2190,9 +2270,11 @@
         <f t="shared" si="5"/>
         <v>3789</v>
       </c>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P22" s="13">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2214,7 +2296,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7972222222222221</v>
+        <v>5.7611111111111111</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -2244,9 +2326,11 @@
         <f t="shared" si="5"/>
         <v>5652</v>
       </c>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P23" s="13">
+        <v>68452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2268,7 +2352,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7694444444444444</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>72</v>
@@ -2298,9 +2382,11 @@
         <f t="shared" si="5"/>
         <v>4923</v>
       </c>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P24" s="13">
+        <v>59623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2322,7 +2408,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.625</v>
+        <v>5.5888888888888886</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>72</v>
@@ -2352,9 +2438,11 @@
         <f t="shared" si="5"/>
         <v>4734</v>
       </c>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P25" s="13">
+        <v>57334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2376,7 +2464,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5333333333333332</v>
+        <v>5.4972222222222218</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2406,9 +2494,11 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P26" s="13">
+        <v>63765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2430,7 +2520,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4972222222222222</v>
+        <v>5.4611111111111112</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>72</v>
@@ -2460,9 +2550,11 @@
         <f t="shared" si="5"/>
         <v>4185</v>
       </c>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P27" s="13">
+        <v>50685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2484,7 +2576,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1722222222222221</v>
+        <v>5.1361111111111111</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
@@ -2514,9 +2606,11 @@
         <f t="shared" si="5"/>
         <v>5058</v>
       </c>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P28" s="13">
+        <v>61258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2538,7 +2632,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8777777777777778</v>
+        <v>4.8416666666666668</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2568,9 +2662,11 @@
         <f t="shared" si="5"/>
         <v>4941</v>
       </c>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P29" s="13">
+        <v>59841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2592,7 +2688,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.875</v>
+        <v>4.8388888888888886</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -2622,9 +2718,11 @@
         <f t="shared" si="5"/>
         <v>4311</v>
       </c>
-      <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P30" s="13">
+        <v>52211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -2646,7 +2744,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.625</v>
+        <v>4.5888888888888886</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>72</v>
@@ -2676,9 +2774,11 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P31" s="13">
+        <v>54064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2700,7 +2800,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6166666666666667</v>
+        <v>4.5805555555555557</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
@@ -2730,9 +2830,11 @@
         <f t="shared" si="5"/>
         <v>3204</v>
       </c>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P32" s="13">
+        <v>38804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2754,7 +2856,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4888888888888889</v>
+        <v>4.4527777777777775</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>80</v>
@@ -2784,9 +2886,11 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P33" s="13">
+        <v>63765</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -2808,7 +2912,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4527777777777777</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -2838,9 +2942,11 @@
         <f t="shared" si="5"/>
         <v>4626</v>
       </c>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P34" s="13">
+        <v>56026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -2862,7 +2968,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61388888888888893</v>
+        <v>3.5777777777777779</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>22</v>
@@ -2892,9 +2998,11 @@
         <f t="shared" si="5"/>
         <v>3474</v>
       </c>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P35" s="13">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -2916,7 +3024,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53055555555555556</v>
+        <v>3.4944444444444445</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>72</v>
@@ -2946,9 +3054,11 @@
         <f t="shared" si="5"/>
         <v>3645</v>
       </c>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P36" s="13">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -2970,7 +3080,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4666666666666668</v>
+        <v>10.430555555555555</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>33</v>
@@ -3000,9 +3110,11 @@
         <f t="shared" si="5"/>
         <v>8676</v>
       </c>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P37" s="13">
+        <v>105076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3136,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10833333333333334</v>
+        <v>3.0722222222222224</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>35</v>
@@ -3054,10 +3166,12 @@
         <f t="shared" si="5"/>
         <v>3330</v>
       </c>
-      <c r="P38" s="13"/>
+      <c r="P38" s="13">
+        <v>40330</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="1">
@@ -3069,32 +3183,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
